--- a/invoices_functions/files/invoices/so_invoices4.xlsx
+++ b/invoices_functions/files/invoices/so_invoices4.xlsx
@@ -443,6993 +443,6993 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SO2974087</t>
+          <t>SO3144334</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SO2974084</t>
+          <t>SO3144310</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SO2974500</t>
+          <t>SO3144406</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SO2974250</t>
+          <t>SO3144385</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SO2974257</t>
+          <t>SO3144553</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SO2974253</t>
+          <t>SO3144437</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SO2974197</t>
+          <t>SO3144613</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SO2979585</t>
+          <t>SO3144735</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SO2974192</t>
+          <t>SO3144764</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SO2974261</t>
+          <t>SO3144880</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SO2979083</t>
+          <t>SO3147268</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SO2974428</t>
+          <t>SO3144912</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SO2974532</t>
+          <t>SO3144925</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SO2974426</t>
+          <t>SO3144982</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SO2996309</t>
+          <t>SO3145158</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SO2974458</t>
+          <t>SO3145197</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SO2974424</t>
+          <t>SO3145290</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SO2974503</t>
+          <t>SO3145261</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SO2974463</t>
+          <t>SO3145176</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SO2974530</t>
+          <t>SO3145320</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SO2974456</t>
+          <t>SO3145289</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SO2986377</t>
+          <t>SO3145279</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SO2975148</t>
+          <t>SO3145376</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SO2977547</t>
+          <t>SO3145506</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SO2974664</t>
+          <t>SO3145458</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SO2974759</t>
+          <t>SO3145532</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SO2974755</t>
+          <t>SO3145505</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SO2975004</t>
+          <t>SO3145567</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SO2982456</t>
+          <t>SO3145596</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SO2974835</t>
+          <t>SO3145648</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SO2974945</t>
+          <t>SO3145650</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SO2974804</t>
+          <t>SO3145688</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SO2974872</t>
+          <t>SO3145691</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SO2974949</t>
+          <t>SO3145708</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SO2974944</t>
+          <t>SO3145925</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SO2974950</t>
+          <t>SO3145926</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SO2975576</t>
+          <t>SO3145884</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SO2975003</t>
+          <t>SO3146388</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SO2977078</t>
+          <t>SO3146528</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SO2975050</t>
+          <t>SO3146573</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SO2975005</t>
+          <t>SO3146407</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SO2975035</t>
+          <t>SO3146740</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SO2981626</t>
+          <t>SO3147137</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SO2975131</t>
+          <t>SO3147841</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SO2975107</t>
+          <t>SO3148025</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SO2975108</t>
+          <t>SO3148764</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SO2976162</t>
+          <t>SO3148143</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SO2975150</t>
+          <t>SO3148542</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SO2975248</t>
+          <t>SO3149015</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SO2975259</t>
+          <t>SO3149180</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SO2975396</t>
+          <t>SO3149379</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SO2975335</t>
+          <t>SO3149602</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SO2975289</t>
+          <t>SO3149710</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SO2975333</t>
+          <t>SO3149791</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SO2975457</t>
+          <t>SO3150249</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SO2987681</t>
+          <t>SO3150450</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SO2975455</t>
+          <t>SO3150644</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SO2975418</t>
+          <t>SO2588318</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SO2975534</t>
+          <t>SO2629288</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SO2977171</t>
+          <t>SO3104106</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SO2975453</t>
+          <t>SO3122652</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SO3006188</t>
+          <t>SO3110521</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SO2975535</t>
+          <t>SO3110479</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SO2975578</t>
+          <t>SO3122536</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SO2977041</t>
+          <t>SO3086952</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SO2975596</t>
+          <t>SO3094570</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SO2976167</t>
+          <t>SO3078368</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SO2975556</t>
+          <t>SO3084633</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SO2976001</t>
+          <t>SO3094349</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SO3005014</t>
+          <t>SO3102589</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SO2975575</t>
+          <t>SO3097037</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SO2975579</t>
+          <t>SO3111776</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SO2975882</t>
+          <t>SO3111105</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SO2975820</t>
+          <t>SO3097300</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SO2975885</t>
+          <t>SO3087795</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SO2975962</t>
+          <t>SO3150763</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SO2975858</t>
+          <t>SO3114407</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SO2986452</t>
+          <t>SO3085845</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SO2975853</t>
+          <t>SO3130505</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SO2989428</t>
+          <t>SO3099839</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SO2975957</t>
+          <t>SO3098315</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SO2976163</t>
+          <t>SO3108856</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SO2975822</t>
+          <t>SO3095705</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SO2975887</t>
+          <t>SO3087045</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SO2976034</t>
+          <t>SO3094618</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SO2976567</t>
+          <t>SO3111300</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SO2976033</t>
+          <t>SO3098516</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SO2987115</t>
+          <t>SO3095521</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SO2976716</t>
+          <t>SO3137011</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SO2976166</t>
+          <t>SO3004158</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SO2982335</t>
+          <t>SO3091354</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SO2976000</t>
+          <t>SO3139133</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SO2976160</t>
+          <t>SO3121887</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SO2976243</t>
+          <t>SO3148291</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SO2976136</t>
+          <t>SO3095908</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SO2984446</t>
+          <t>SO3112379</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SO2976283</t>
+          <t>SO3086904</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SO2976329</t>
+          <t>SO3081571</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SO2976431</t>
+          <t>SO3127240</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SO2980644</t>
+          <t>SO3115311</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SO2984582</t>
+          <t>SO3088967</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SO2976332</t>
+          <t>SO3106400</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SO2980134</t>
+          <t>SO3098722</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SO2976564</t>
+          <t>SO2956359</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SO2984445</t>
+          <t>SO3107088</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SO2978260</t>
+          <t>SO3109467</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SO2976572</t>
+          <t>SO3103774</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SO2976713</t>
+          <t>SO3115842</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SO2976559</t>
+          <t>SO3101766</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SO2976660</t>
+          <t>SO3140845</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SO2976715</t>
+          <t>SO3119940</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SO2976718</t>
+          <t>SO3114932</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SO2976881</t>
+          <t>SO3122808</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SO2989088</t>
+          <t>SO3087418</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SO2977040</t>
+          <t>SO3093270</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SO2977021</t>
+          <t>SO3109853</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SO2976861</t>
+          <t>SO3140046</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SO2976885</t>
+          <t>SO3086490</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SO2979494</t>
+          <t>SO3090821</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>SO2976875</t>
+          <t>SO3117425</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>SO2977043</t>
+          <t>SO3101452</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SO2977012</t>
+          <t>SO3093629</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SO2976882</t>
+          <t>SO3088795</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SO2977164</t>
+          <t>SO3088963</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SO2977036</t>
+          <t>SO3094535</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SO2977053</t>
+          <t>SO3150017</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SO2977079</t>
+          <t>SO3089141</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SO2977114</t>
+          <t>SO3114784</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SO2977076</t>
+          <t>SO3101323</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>SO2977394</t>
+          <t>SO3122297</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SO2977122</t>
+          <t>SO3143016</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SO2977162</t>
+          <t>SO3090135</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SO2977403</t>
+          <t>SO3099131</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>SO2977398</t>
+          <t>SO3088588</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>SO2977392</t>
+          <t>SO3110493</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>SO2977732</t>
+          <t>SO3114513</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>SO2977503</t>
+          <t>SO2976975</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>SO2977423</t>
+          <t>SO3141138</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>SO2977463</t>
+          <t>SO3105601</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SO2977734</t>
+          <t>SO3086470</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SO2993839</t>
+          <t>SO3087310</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>SO2977603</t>
+          <t>SO3107315</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SO2977548</t>
+          <t>SO3133842</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SO2984083</t>
+          <t>SO3081145</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SO2977723</t>
+          <t>SO3090180</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SO2988824</t>
+          <t>SO3097032</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SO2977599</t>
+          <t>SO3101194</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SO2977974</t>
+          <t>SO3113030</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>SO2978709</t>
+          <t>SO3111631</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>SO2977882</t>
+          <t>SO3101480</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>SO2977881</t>
+          <t>SO3086441</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SO2978069</t>
+          <t>SO3098540</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>SO2978065</t>
+          <t>SO3123730</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>SO2978063</t>
+          <t>SO3086340</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>SO2980299</t>
+          <t>SO3119420</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>SO2980298</t>
+          <t>SO3082311</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>SO2978312</t>
+          <t>SO3092212</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>SO2978824</t>
+          <t>SO3002802</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>SO2978064</t>
+          <t>SO3090676</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>SO3005631</t>
+          <t>SO3096127</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>SO2978471</t>
+          <t>SO3090996</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>SO2978227</t>
+          <t>SO3115832</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>SO2978310</t>
+          <t>SO3092336</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>SO2978662</t>
+          <t>SO3109265</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>SO2978707</t>
+          <t>SO3101115</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>SO2978384</t>
+          <t>SO3111769</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>SO2978619</t>
+          <t>SO3125389</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>SO2978712</t>
+          <t>SO3122959</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>SO2978710</t>
+          <t>SO3108517</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>SO2978564</t>
+          <t>SO3108525</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>SO2978950</t>
+          <t>SO3104555</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>SO2978746</t>
+          <t>SO3010995</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>SO2978618</t>
+          <t>SO3090649</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>SO2978711</t>
+          <t>SO3114805</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>SO2978567</t>
+          <t>SO3105691</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>SO2991001</t>
+          <t>SO3081831</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>SO2979031</t>
+          <t>SO3090399</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>SO2978826</t>
+          <t>SO3096111</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>SO2978751</t>
+          <t>SO3124547</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>SO2979028</t>
+          <t>SO3114107</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>SO2981323</t>
+          <t>SO3132208</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>SO2979023</t>
+          <t>SO3146125</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>SO2978947</t>
+          <t>SO3115037</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>SO2979486</t>
+          <t>SO3133108</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>SO2979490</t>
+          <t>SO3116583</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>SO2979299</t>
+          <t>SO3086275</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>SO2986210</t>
+          <t>SO3106556</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>SO2979211</t>
+          <t>SO3094695</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>SO2979661</t>
+          <t>SO3114612</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>SO2980378</t>
+          <t>SO3082173</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>SO2987654</t>
+          <t>SO3094122</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>SO2979701</t>
+          <t>SO3100954</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>SO2979537</t>
+          <t>SO3142073</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>SO2979821</t>
+          <t>SO3119220</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>SO2979655</t>
+          <t>SO3089212</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>SO2979830</t>
+          <t>SO3114931</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>SO2979586</t>
+          <t>SO3142467</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>SO2979496</t>
+          <t>SO3083100</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>SO2979663</t>
+          <t>SO3093665</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>SO2979825</t>
+          <t>SO3098198</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>SO2979882</t>
+          <t>SO3085299</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>SO2980032</t>
+          <t>SO3044374</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>SO2979968</t>
+          <t>SO3094706</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>SO2980042</t>
+          <t>SO3107521</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>SO2980021</t>
+          <t>SO3092733</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>SO2980330</t>
+          <t>SO3141301</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>SO2980036</t>
+          <t>SO3098310</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>SO2979972</t>
+          <t>SO3094447</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>SO2980238</t>
+          <t>SO3094191</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>SO2986159</t>
+          <t>SO3088873</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>SO2980377</t>
+          <t>SO3093459</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>SO2980133</t>
+          <t>SO3123630</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>SO2980435</t>
+          <t>SO3055970</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>SO2988877</t>
+          <t>SO3085049</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>SO2980437</t>
+          <t>SO3097315</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>SO2980433</t>
+          <t>SO3120239</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>SO2980531</t>
+          <t>SO3058916</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>SO2980810</t>
+          <t>SO3103175</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>SO2980539</t>
+          <t>SO3128040</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>SO2980494</t>
+          <t>SO3108129</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>SO2984703</t>
+          <t>SO3081450</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>SO2980540</t>
+          <t>SO3120204</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>SO2980643</t>
+          <t>SO3089206</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>SO2980882</t>
+          <t>SO3113673</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>SO2987781</t>
+          <t>SO3085949</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>SO2980778</t>
+          <t>SO3127949</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>SO2980775</t>
+          <t>SO3084962</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>SO2980847</t>
+          <t>SO3082105</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>SO2982110</t>
+          <t>SO3137875</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>SO2981174</t>
+          <t>SO3078936</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>SO3004366</t>
+          <t>SO3082378</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>SO2980846</t>
+          <t>SO3110583</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>SO2981011</t>
+          <t>SO3113689</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>SO2991989</t>
+          <t>SO3078508</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>SO2981144</t>
+          <t>SO3118029</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>SO2981087</t>
+          <t>SO3113942</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>SO2981061</t>
+          <t>SO3113687</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>SO2981083</t>
+          <t>SO3086192</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>SO2981142</t>
+          <t>SO3122500</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>SO2981175</t>
+          <t>SO3069163</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>SO2981254</t>
+          <t>SO3118206</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>SO2983682</t>
+          <t>SO3122604</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>SO2992499</t>
+          <t>SO3086372</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>SO2981512</t>
+          <t>SO3086107</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>SO2981376</t>
+          <t>SO3082134</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>SO2981514</t>
+          <t>SO3070978</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>SO2981293</t>
+          <t>SO3088899</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>SO2981359</t>
+          <t>SO3101854</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>SO2981434</t>
+          <t>SO3098157</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>SO2995650</t>
+          <t>SO3110724</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>SO2981326</t>
+          <t>SO3123536</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>SO2981412</t>
+          <t>SO3088924</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>SO2981631</t>
+          <t>SO3106705</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>SO2982048</t>
+          <t>SO3100722</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>SO2981597</t>
+          <t>SO3134554</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>SO2981529</t>
+          <t>SO3079711</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>SO2981630</t>
+          <t>SO3082136</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>SO2981593</t>
+          <t>SO3079813</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>SO2983642</t>
+          <t>SO3078692</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>SO2998859</t>
+          <t>SO3131435</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>SO2981596</t>
+          <t>SO3080532</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>SO2981706</t>
+          <t>SO3097257</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>SO2981707</t>
+          <t>SO3111644</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>SO2981665</t>
+          <t>SO3077328</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>SO2981837</t>
+          <t>SO3077316</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>SO3005005</t>
+          <t>SO3077343</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>SO2982159</t>
+          <t>SO3086327</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>SO2982243</t>
+          <t>SO3077583</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>SO2981926</t>
+          <t>SO3077808</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>SO2982183</t>
+          <t>SO3077874</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>SO3002607</t>
+          <t>SO3077885</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>SO2982100</t>
+          <t>SO3077975</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>SO2987418</t>
+          <t>SO3078152</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>SO2982220</t>
+          <t>SO3078126</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>SO2982248</t>
+          <t>SO3078200</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>SO2983944</t>
+          <t>SO3078261</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>SO2982298</t>
+          <t>SO3078209</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>SO2982466</t>
+          <t>SO3078268</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>SO2982300</t>
+          <t>SO3078334</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>SO2982247</t>
+          <t>SO3078324</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>SO2982333</t>
+          <t>SO3078440</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>SO2982572</t>
+          <t>SO3078462</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>SO2983154</t>
+          <t>SO3078518</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>SO2982361</t>
+          <t>SO3078488</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>SO2982636</t>
+          <t>SO3078523</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>SO2982467</t>
+          <t>SO3078622</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>SO2982552</t>
+          <t>SO3078632</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>SO2982526</t>
+          <t>SO3078658</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>SO2982637</t>
+          <t>SO3078704</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>SO2983817</t>
+          <t>SO3078721</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>SO2982826</t>
+          <t>SO3078747</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>SO2982634</t>
+          <t>SO3087866</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>SO2982880</t>
+          <t>SO3078813</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>SO2982778</t>
+          <t>SO3080400</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>SO2999530</t>
+          <t>SO3079598</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>SO2985059</t>
+          <t>SO3078740</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>SO2982928</t>
+          <t>SO3078812</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>SO2982816</t>
+          <t>SO3078832</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>SO2985518</t>
+          <t>SO3079004</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>SO2982815</t>
+          <t>SO3079007</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>SO2983009</t>
+          <t>SO3107470</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>SO2982930</t>
+          <t>SO3079370</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>SO2988318</t>
+          <t>SO3079362</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>SO2983200</t>
+          <t>SO3079369</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>SO2982856</t>
+          <t>SO3082289</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>SO2985065</t>
+          <t>SO3080731</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>SO2983165</t>
+          <t>SO3079523</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>SO2983356</t>
+          <t>SO3079618</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>SO2983155</t>
+          <t>SO3127879</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>SO2983245</t>
+          <t>SO3087552</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>SO2983100</t>
+          <t>SO3079651</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>SO2983045</t>
+          <t>SO3079782</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>SO2983637</t>
+          <t>SO3081112</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>SO2983821</t>
+          <t>SO3097003</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>SO2987389</t>
+          <t>SO3079734</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>SO2983108</t>
+          <t>SO3079817</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>SO2985768</t>
+          <t>SO3079944</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>SO2983351</t>
+          <t>SO3110202</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>SO2983634</t>
+          <t>SO3080031</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>SO2983431</t>
+          <t>SO3093361</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>SO2983353</t>
+          <t>SO3080089</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>SO2983619</t>
+          <t>SO3083005</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>SO2983354</t>
+          <t>SO3080267</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>SO2989013</t>
+          <t>SO3086961</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>SO2983680</t>
+          <t>SO3080305</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>SO2983732</t>
+          <t>SO3080286</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>SO2983628</t>
+          <t>SO3080322</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>SO2983651</t>
+          <t>SO3080341</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>SO2987908</t>
+          <t>SO3080360</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>SO2983733</t>
+          <t>SO3080380</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>SO2987935</t>
+          <t>SO3080422</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>SO2983579</t>
+          <t>SO3080445</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>SO2983621</t>
+          <t>SO3080809</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>SO2983730</t>
+          <t>SO3082825</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>SO2983624</t>
+          <t>SO3080618</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>SO2983684</t>
+          <t>SO3080617</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>SO2983991</t>
+          <t>SO3080669</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>SO2983823</t>
+          <t>SO3080726</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>SO2983822</t>
+          <t>SO3080656</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>SO2983940</t>
+          <t>SO3080702</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>SO2989028</t>
+          <t>SO3080722</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>SO2983937</t>
+          <t>SO3080755</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>SO2984220</t>
+          <t>SO3081341</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>SO2984087</t>
+          <t>SO3080800</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>SO3000514</t>
+          <t>SO3080863</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>SO2983941</t>
+          <t>SO3080875</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>SO2984218</t>
+          <t>SO3080891</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>SO2984037</t>
+          <t>SO3080951</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>SO2986211</t>
+          <t>SO3089809</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>SO2984080</t>
+          <t>SO3081100</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>SO2984226</t>
+          <t>SO3081215</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>SO2985695</t>
+          <t>SO3081121</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>SO2984377</t>
+          <t>SO3082158</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>SO2984134</t>
+          <t>SO3081461</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>SO2984082</t>
+          <t>SO3082041</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>SO2984221</t>
+          <t>SO3081500</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>SO2985847</t>
+          <t>SO3081586</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>SO2984133</t>
+          <t>SO3081607</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>SO2984274</t>
+          <t>SO3081734</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>SO2984376</t>
+          <t>SO3081587</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>SO2984219</t>
+          <t>SO3081602</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>SO2994847</t>
+          <t>SO3081902</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>SO2984375</t>
+          <t>SO3081704</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>SO2984371</t>
+          <t>SO3081720</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>SO2984403</t>
+          <t>SO3081733</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>SO2984584</t>
+          <t>SO3081753</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>SO2984581</t>
+          <t>SO3081823</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>SO2984577</t>
+          <t>SO3081858</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>SO2985713</t>
+          <t>SO3081913</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>SO2984742</t>
+          <t>SO3081904</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>SO2985062</t>
+          <t>SO3081922</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>SO2984779</t>
+          <t>SO3081995</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>SO2984710</t>
+          <t>SO3081996</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>SO2984699</t>
+          <t>SO3081997</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>SO2984748</t>
+          <t>SO3082003</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>SO2984821</t>
+          <t>SO3082057</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>SO2984787</t>
+          <t>SO3097703</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>SO2984842</t>
+          <t>SO3082086</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>SO2985287</t>
+          <t>SO3082121</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>SO2986406</t>
+          <t>SO3082170</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>SO2985055</t>
+          <t>SO3082207</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>SO2985070</t>
+          <t>SO3082184</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>SO2985060</t>
+          <t>SO3082240</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>SO2985051</t>
+          <t>SO3082230</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>SO2985071</t>
+          <t>SO3082252</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>SO2985066</t>
+          <t>SO3082278</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>SO2984934</t>
+          <t>SO3099820</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>SO2985057</t>
+          <t>SO3092749</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>SO2985063</t>
+          <t>SO3085143</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>SO2985058</t>
+          <t>SO3082435</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>SO2985166</t>
+          <t>SO3082400</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>SO2985113</t>
+          <t>SO3082490</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>SO2985289</t>
+          <t>SO3086195</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>SO2985050</t>
+          <t>SO3082540</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>SO2990240</t>
+          <t>SO3082812</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>SO2990270</t>
+          <t>SO3082646</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>SO2985169</t>
+          <t>SO3082682</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>SO2985174</t>
+          <t>SO3082696</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>SO2985114</t>
+          <t>SO3082765</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>SO2985170</t>
+          <t>SO3082784</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>SO2985224</t>
+          <t>SO3086660</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>SO2985943</t>
+          <t>SO3082976</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>SO2989422</t>
+          <t>SO3083049</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>SO2988470</t>
+          <t>SO3083069</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>SO2985229</t>
+          <t>SO3083134</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>SO2985703</t>
+          <t>SO3083121</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>SO2985388</t>
+          <t>SO3083135</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>SO2985282</t>
+          <t>SO3083199</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>SO2985328</t>
+          <t>SO3083139</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>SO2985353</t>
+          <t>SO3083145</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>SO2985428</t>
+          <t>SO3083182</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>SO2991033</t>
+          <t>SO3084876</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>SO2985520</t>
+          <t>SO3083241</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>SO2985727</t>
+          <t>SO3083239</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>SO2985715</t>
+          <t>SO3083284</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>SO2985351</t>
+          <t>SO3083243</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>SO2985350</t>
+          <t>SO3083312</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>SO2985385</t>
+          <t>SO3083371</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>SO2985431</t>
+          <t>SO3083286</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>SO2985384</t>
+          <t>SO3083328</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>SO2985517</t>
+          <t>SO3083350</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>SO2985710</t>
+          <t>SO3083369</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>SO2985705</t>
+          <t>SO3083449</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>SO2985522</t>
+          <t>SO3083400</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>SO2985708</t>
+          <t>SO3083401</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>SO2985552</t>
+          <t>SO3083424</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>SO2985712</t>
+          <t>SO3083431</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>SO2985623</t>
+          <t>SO3083434</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>SO2985704</t>
+          <t>SO3083693</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>SO2985844</t>
+          <t>SO3083448</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>SO2985767</t>
+          <t>SO3083452</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>SO2987855</t>
+          <t>SO3083466</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>SO2985709</t>
+          <t>SO3083480</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>SO2985951</t>
+          <t>SO3083506</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>SO2985699</t>
+          <t>SO3083503</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>SO2985859</t>
+          <t>SO3083549</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>SO2985853</t>
+          <t>SO3083539</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>SO2985838</t>
+          <t>SO3083554</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>SO2985766</t>
+          <t>SO3083574</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>SO2986014</t>
+          <t>SO3083654</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>SO2985834</t>
+          <t>SO3083611</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>SO2985854</t>
+          <t>SO3083625</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>SO2985876</t>
+          <t>SO3083743</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>SO2985851</t>
+          <t>SO3083731</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>SO2985852</t>
+          <t>SO3097160</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>SO2994728</t>
+          <t>SO3083748</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>SO2985940</t>
+          <t>SO3083890</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>SO2985947</t>
+          <t>SO3083850</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>SO2987064</t>
+          <t>SO3087667</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>SO2985990</t>
+          <t>SO3085994</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>SO2985949</t>
+          <t>SO3083896</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>SO2986008</t>
+          <t>SO3083910</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>SO2986023</t>
+          <t>SO3084038</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>SO2986010</t>
+          <t>SO3088075</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>SO2986051</t>
+          <t>SO3084084</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>SO2986049</t>
+          <t>SO3100401</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>SO2985991</t>
+          <t>SO3084146</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>SO2986007</t>
+          <t>SO3084241</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>SO2986213</t>
+          <t>SO3092741</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>SO2986467</t>
+          <t>SO3091439</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>SO2986607</t>
+          <t>SO3092226</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>SO2986096</t>
+          <t>SO3084372</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>SO2986332</t>
+          <t>SO3095162</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>SO2988601</t>
+          <t>SO3084497</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>SO2986209</t>
+          <t>SO3098591</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>SO2986170</t>
+          <t>SO3085826</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>SO2986215</t>
+          <t>SO3084844</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>SO2986299</t>
+          <t>SO3101306</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>SO2986293</t>
+          <t>SO3084854</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>SO2986330</t>
+          <t>SO3085070</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>SO2986291</t>
+          <t>SO3084977</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>SO2986298</t>
+          <t>SO3085069</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>SO2986296</t>
+          <t>SO3085024</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>SO3002221</t>
+          <t>SO3085023</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>SO2986329</t>
+          <t>SO3085064</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>SO2986543</t>
+          <t>SO3085095</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>SO2986367</t>
+          <t>SO3085115</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>SO2986482</t>
+          <t>SO3085188</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>SO2991838</t>
+          <t>SO3085159</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>SO2986546</t>
+          <t>SO3085150</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>SO3003240</t>
+          <t>SO3085123</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>SO2986362</t>
+          <t>SO3085151</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>SO2986510</t>
+          <t>SO3085166</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>SO2986608</t>
+          <t>SO3085221</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>SO2986602</t>
+          <t>SO3085445</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>SO2986513</t>
+          <t>SO3085210</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>SO2986552</t>
+          <t>SO3085242</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>SO2986645</t>
+          <t>SO3085356</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>SO2988957</t>
+          <t>SO3085386</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>SO2986600</t>
+          <t>SO3085401</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>SO2986714</t>
+          <t>SO3085408</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>SO2989933</t>
+          <t>SO3085441</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>SO2986719</t>
+          <t>SO3085447</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>SO2995736</t>
+          <t>SO3085420</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>SO2986751</t>
+          <t>SO3085436</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>SO2999848</t>
+          <t>SO3085505</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>SO2986716</t>
+          <t>SO3085615</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>SO2986803</t>
+          <t>SO3085591</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>SO2986747</t>
+          <t>SO3085590</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>SO2989691</t>
+          <t>SO3085544</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>SO2986802</t>
+          <t>SO3085703</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>SO2986869</t>
+          <t>SO3085660</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>SO2988261</t>
+          <t>SO3085659</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>SO2986835</t>
+          <t>SO3085592</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>SO2986837</t>
+          <t>SO3085744</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>SO2987008</t>
+          <t>SO3085722</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>SO2987050</t>
+          <t>SO3085743</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>SO2987010</t>
+          <t>SO3086430</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>SO2987066</t>
+          <t>SO3085742</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>SO2995785</t>
+          <t>SO3085748</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>SO2987062</t>
+          <t>SO3085773</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>SO2987063</t>
+          <t>SO3085797</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>SO2987088</t>
+          <t>SO3085791</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>SO2987144</t>
+          <t>SO3085872</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>SO2987116</t>
+          <t>SO3085786</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>SO2987119</t>
+          <t>SO3085923</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>SO2987214</t>
+          <t>SO3085816</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>SO2987286</t>
+          <t>SO3085824</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>SO2987313</t>
+          <t>SO3085833</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>SO2995366</t>
+          <t>SO3085920</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>SO2987387</t>
+          <t>SO3090468</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>SO2987388</t>
+          <t>SO3085924</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>SO2987434</t>
+          <t>SO3122593</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>SO2987460</t>
+          <t>SO3085959</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>SO2987466</t>
+          <t>SO3085915</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>SO2987378</t>
+          <t>SO3085925</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>SO2987338</t>
+          <t>SO3086020</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>SO2987468</t>
+          <t>SO3085909</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>SO2989753</t>
+          <t>SO3086012</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>SO2987480</t>
+          <t>SO3085977</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>SO2987420</t>
+          <t>SO3085976</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>SO2987555</t>
+          <t>SO3085993</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>SO2987461</t>
+          <t>SO3085955</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>SO2987465</t>
+          <t>SO3086051</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>SO2989421</t>
+          <t>SO3116297</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>SO2987705</t>
+          <t>SO3086144</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>SO2990163</t>
+          <t>SO3086069</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>SO2988702</t>
+          <t>SO3086100</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>SO2987552</t>
+          <t>SO3086310</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>SO2987633</t>
+          <t>SO3086163</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>SO2987572</t>
+          <t>SO3086167</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>SO2987570</t>
+          <t>SO3088520</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>SO2988257</t>
+          <t>SO3086196</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>SO2987550</t>
+          <t>SO3086215</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>SO2987581</t>
+          <t>SO3086205</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>SO2987755</t>
+          <t>SO3086261</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>SO2987616</t>
+          <t>SO3086206</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>SO2987663</t>
+          <t>SO3086286</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>SO2987686</t>
+          <t>SO3090093</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>SO2987661</t>
+          <t>SO3086266</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>SO2987726</t>
+          <t>SO3086276</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>SO2987913</t>
+          <t>SO3086387</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>SO2987788</t>
+          <t>SO3088241</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>SO2987754</t>
+          <t>SO3086425</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>SO2998794</t>
+          <t>SO3086433</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>SO2992491</t>
+          <t>SO3086435</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>SO2987759</t>
+          <t>SO3086440</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>SO2987916</t>
+          <t>SO3086462</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>SO2987852</t>
+          <t>SO3086482</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>SO2988039</t>
+          <t>SO3086446</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>SO2987890</t>
+          <t>SO3086592</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>SO2987912</t>
+          <t>SO3086479</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>SO2988042</t>
+          <t>SO3086594</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>SO2987914</t>
+          <t>SO3086434</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>SO2988035</t>
+          <t>SO3086432</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>SO2987951</t>
+          <t>SO3087143</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>SO3001044</t>
+          <t>SO3086587</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>SO2992118</t>
+          <t>SO3086653</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>SO2988092</t>
+          <t>SO3087747</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>SO2988313</t>
+          <t>SO3086665</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>SO2988134</t>
+          <t>SO3086754</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>SO2988246</t>
+          <t>SO3086693</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>SO2988030</t>
+          <t>SO3086768</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>SO2988226</t>
+          <t>SO3086715</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>SO2988286</t>
+          <t>SO3086744</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>SO2988022</t>
+          <t>SO3086760</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>SO2988258</t>
+          <t>SO3086815</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>SO2988023</t>
+          <t>SO3086805</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>SO2988240</t>
+          <t>SO3086874</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>SO2989539</t>
+          <t>SO3087027</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>SO2988395</t>
+          <t>SO3086823</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>SO2988231</t>
+          <t>SO3086801</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>SO2989090</t>
+          <t>SO3086795</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>SO2988345</t>
+          <t>SO3094843</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>SO2988303</t>
+          <t>SO3087710</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>SO2988540</t>
+          <t>SO3086851</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>SO2988516</t>
+          <t>SO3086808</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>SO2988515</t>
+          <t>SO3086824</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>SO2988236</t>
+          <t>SO3086849</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>SO2988468</t>
+          <t>SO3087030</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>SO2988432</t>
+          <t>SO3086863</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>SO2988285</t>
+          <t>SO3086850</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>SO2988312</t>
+          <t>SO3086891</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>SO2988613</t>
+          <t>SO3086915</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>SO2988640</t>
+          <t>SO3086953</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>SO2988355</t>
+          <t>SO3086914</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>SO2992626</t>
+          <t>SO3086931</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>SO2988354</t>
+          <t>SO3087052</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>SO2988436</t>
+          <t>SO3087336</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>SO2988349</t>
+          <t>SO3087118</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>SO2988480</t>
+          <t>SO3087013</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>SO2988514</t>
+          <t>SO3087111</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>SO2988433</t>
+          <t>SO3087056</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>SO2988536</t>
+          <t>SO3087014</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>SO2988475</t>
+          <t>SO3087040</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>SO2988639</t>
+          <t>SO3087980</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>SO2988582</t>
+          <t>SO3087163</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>SO2988608</t>
+          <t>SO3087119</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>SO2988839</t>
+          <t>SO3087144</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>SO2998465</t>
+          <t>SO3087188</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>SO2988603</t>
+          <t>SO3087129</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>SO2988602</t>
+          <t>SO3087140</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>SO2988846</t>
+          <t>SO3087203</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>SO2988953</t>
+          <t>SO3087247</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>SO2988836</t>
+          <t>SO3087211</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>SO2996561</t>
+          <t>SO3087180</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>SO2988744</t>
+          <t>SO3087202</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>SO2988842</t>
+          <t>SO3087209</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>SO2988742</t>
+          <t>SO3087254</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>SO2988838</t>
+          <t>SO3087253</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>SO2988871</t>
+          <t>SO3088789</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>SO2988828</t>
+          <t>SO3087252</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>SO2988822</t>
+          <t>SO3087343</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>SO2988873</t>
+          <t>SO3087287</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>SO2988875</t>
+          <t>SO3087313</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>SO2989011</t>
+          <t>SO3087386</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>SO2988950</t>
+          <t>SO3104499</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>SO2988905</t>
+          <t>SO3087408</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>SO2988926</t>
+          <t>SO3087513</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>SO2989055</t>
+          <t>SO3087447</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>SO2988855</t>
+          <t>SO3087452</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>SO2989016</t>
+          <t>SO3087512</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>SO2998322</t>
+          <t>SO3087490</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>SO2989062</t>
+          <t>SO3087510</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>SO2991519</t>
+          <t>SO3089096</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>SO2989169</t>
+          <t>SO3087579</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>SO2989168</t>
+          <t>SO3087591</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>SO2989148</t>
+          <t>SO3087633</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>SO2989223</t>
+          <t>SO3087576</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>SO2989192</t>
+          <t>SO3087811</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>SO2989096</t>
+          <t>SO3087632</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>SO2989172</t>
+          <t>SO3087604</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>SO2989222</t>
+          <t>SO3087637</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>SO2989645</t>
+          <t>SO3087649</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>SO2989171</t>
+          <t>SO3087847</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>SO2989221</t>
+          <t>SO3093167</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>SO2989269</t>
+          <t>SO3087666</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>SO3001522</t>
+          <t>SO3087714</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>SO2990235</t>
+          <t>SO3087804</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>SO3001101</t>
+          <t>SO3087711</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>SO2989306</t>
+          <t>SO3087708</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>SO2989188</t>
+          <t>SO3087712</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>SO2989534</t>
+          <t>SO3092373</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>SO2989367</t>
+          <t>SO3087791</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>SO2989287</t>
+          <t>SO3087746</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>SO2989356</t>
+          <t>SO3087760</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>SO2989355</t>
+          <t>SO3087813</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>SO2989426</t>
+          <t>SO3087844</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>SO2989429</t>
+          <t>SO3087845</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>SO2990629</t>
+          <t>SO3087869</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>SO2990317</t>
+          <t>SO3087862</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>SO2991957</t>
+          <t>SO3087870</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>SO2989553</t>
+          <t>SO3096452</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>SO2989437</t>
+          <t>SO3087911</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>SO2989415</t>
+          <t>SO3091622</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>SO2991782</t>
+          <t>SO3091881</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>SO2989416</t>
+          <t>SO3087962</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>SO2989448</t>
+          <t>SO3092577</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>SO2989508</t>
+          <t>SO3088134</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>SO3005157</t>
+          <t>SO3088033</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>SO2989540</t>
+          <t>SO3088099</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>SO2989566</t>
+          <t>SO3088045</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>SO2989533</t>
+          <t>SO3088064</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>SO2989644</t>
+          <t>SO3088065</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>SO2994074</t>
+          <t>SO3088085</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>SO2989766</t>
+          <t>SO3088068</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>SO2989761</t>
+          <t>SO3088103</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>SO2989930</t>
+          <t>SO3088135</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>SO2989823</t>
+          <t>SO3088132</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>SO2989928</t>
+          <t>SO3090883</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>SO2990187</t>
+          <t>SO3088526</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>SO2989922</t>
+          <t>SO3088287</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>SO2989918</t>
+          <t>SO3089338</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>SO2989818</t>
+          <t>SO3088244</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>SO2990194</t>
+          <t>SO3088347</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>SO2989835</t>
+          <t>SO3092313</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>SO2989858</t>
+          <t>SO3088335</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>SO2990192</t>
+          <t>SO3088333</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>SO2990179</t>
+          <t>SO3088404</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>SO2989972</t>
+          <t>SO3088367</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>SO2989919</t>
+          <t>SO3088662</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>SO2990242</t>
+          <t>SO3088406</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>SO2989978</t>
+          <t>SO3088450</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>SO3003094</t>
+          <t>SO3088508</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>SO2990051</t>
+          <t>SO3095600</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>SO2990036</t>
+          <t>SO3088522</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>SO2990170</t>
+          <t>SO3088580</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>SO2990233</t>
+          <t>SO3088570</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>SO2990169</t>
+          <t>SO3088534</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>SO2990097</t>
+          <t>SO3088482</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>SO2990303</t>
+          <t>SO3088493</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>SO2990131</t>
+          <t>SO3088543</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>SO2990237</t>
+          <t>SO3088928</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>SO2990320</t>
+          <t>SO3102551</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>SO2990278</t>
+          <t>SO3088568</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>SO2990387</t>
+          <t>SO3088628</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>SO2990269</t>
+          <t>SO3088639</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>SO2990260</t>
+          <t>SO3088646</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>SO2990632</t>
+          <t>SO3088674</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>SO2990412</t>
+          <t>SO3091437</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>SO2990352</t>
+          <t>SO3090018</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>SO2990351</t>
+          <t>SO3088643</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>SO2990411</t>
+          <t>SO3088704</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>SO2990849</t>
+          <t>SO3088742</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>SO2990348</t>
+          <t>SO3088826</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>SO2990627</t>
+          <t>SO3088817</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>SO2994533</t>
+          <t>SO3088845</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>SO2990499</t>
+          <t>SO3088881</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>SO2990528</t>
+          <t>SO3088858</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>SO2990531</t>
+          <t>SO3090128</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>SO2990503</t>
+          <t>SO3088820</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>SO2990498</t>
+          <t>SO3088890</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>SO2995954</t>
+          <t>SO3098255</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>SO2990664</t>
+          <t>SO3101689</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>SO2995218</t>
+          <t>SO3089131</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>SO2990571</t>
+          <t>SO3088905</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>SO2990686</t>
+          <t>SO3088959</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>SO2990847</t>
+          <t>SO3088923</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>SO2990726</t>
+          <t>SO3088902</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>SO2990898</t>
+          <t>SO3088965</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>SO2995618</t>
+          <t>SO3088941</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>SO2990660</t>
+          <t>SO3091448</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>SO2990752</t>
+          <t>SO3091932</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>SO2990725</t>
+          <t>SO3088919</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>SO2990841</t>
+          <t>SO3088980</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>SO2990754</t>
+          <t>SO3088944</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>SO2990840</t>
+          <t>SO3088978</t>
         </is>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>SO2990899</t>
+          <t>SO3089016</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>SO2991081</t>
+          <t>SO3089004</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>SO2990868</t>
+          <t>SO3089010</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>SO2990837</t>
+          <t>SO3089057</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>SO2991006</t>
+          <t>SO3090814</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>SO2991037</t>
+          <t>SO3089104</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>SO2990943</t>
+          <t>SO3091135</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>SO2990998</t>
+          <t>SO3148523</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>SO2991041</t>
+          <t>SO3091155</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>SO2991224</t>
+          <t>SO3089059</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>SO2992621</t>
+          <t>SO3089101</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>SO2991043</t>
+          <t>SO3089058</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>SO2991307</t>
+          <t>SO3089073</t>
         </is>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>SO2991077</t>
+          <t>SO3089105</t>
         </is>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>SO2991083</t>
+          <t>SO3089498</t>
         </is>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>SO2991132</t>
+          <t>SO3089114</t>
         </is>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>SO2991112</t>
+          <t>SO3089126</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>SO3003361</t>
+          <t>SO3089231</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>SO2991130</t>
+          <t>SO3089115</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>SO3000146</t>
+          <t>SO3089142</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>SO2991226</t>
+          <t>SO3089193</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>SO2991247</t>
+          <t>SO3089156</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>SO2991310</t>
+          <t>SO3089309</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>SO2991346</t>
+          <t>SO3089488</t>
         </is>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>SO2996639</t>
+          <t>SO3089277</t>
         </is>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>SO2991398</t>
+          <t>SO3093426</t>
         </is>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>SO2991415</t>
+          <t>SO3089335</t>
         </is>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>SO2991375</t>
+          <t>SO3127495</t>
         </is>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>SO2991334</t>
+          <t>SO3089293</t>
         </is>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>SO2991389</t>
+          <t>SO3089305</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>SO2997589</t>
+          <t>SO3089362</t>
         </is>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>SO2991483</t>
+          <t>SO3089458</t>
         </is>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>SO2991417</t>
+          <t>SO3089407</t>
         </is>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>SO2991688</t>
+          <t>SO3089825</t>
         </is>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>SO2991592</t>
+          <t>SO3089398</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>SO2991811</t>
+          <t>SO3089822</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>SO2991743</t>
+          <t>SO3089627</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>SO2991716</t>
+          <t>SO3089493</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>SO2991744</t>
+          <t>SO3089492</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>SO2991800</t>
+          <t>SO3089581</t>
         </is>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>SO2991732</t>
+          <t>SO3089519</t>
         </is>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>SO2991991</t>
+          <t>SO3089456</t>
         </is>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>SO2991855</t>
+          <t>SO3089471</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>SO2992572</t>
+          <t>SO3089497</t>
         </is>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>SO2991837</t>
+          <t>SO3089468</t>
         </is>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>SO2991865</t>
+          <t>SO3089504</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>SO2991956</t>
+          <t>SO3089540</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>SO2991996</t>
+          <t>SO3089542</t>
         </is>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>SO2992250</t>
+          <t>SO3089610</t>
         </is>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>SO2991988</t>
+          <t>SO3089632</t>
         </is>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>SO2992081</t>
+          <t>SO3089593</t>
         </is>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>SO2992151</t>
+          <t>SO3090730</t>
         </is>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>SO2992571</t>
+          <t>SO3089638</t>
         </is>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>SO2992247</t>
+          <t>SO3089642</t>
         </is>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>SO2992172</t>
+          <t>SO3089670</t>
         </is>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>SO2992246</t>
+          <t>SO3089747</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>SO2992757</t>
+          <t>SO3089744</t>
         </is>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>SO2994993</t>
+          <t>SO3089753</t>
         </is>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>SO2992245</t>
+          <t>SO3089735</t>
         </is>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>SO2998615</t>
+          <t>SO3089684</t>
         </is>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>SO2992252</t>
+          <t>SO3089702</t>
         </is>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>SO2992575</t>
+          <t>SO3089727</t>
         </is>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>SO2992304</t>
+          <t>SO3089713</t>
         </is>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>SO2992278</t>
+          <t>SO3089726</t>
         </is>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>SO2992373</t>
+          <t>SO3089742</t>
         </is>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>SO3000855</t>
+          <t>SO3089725</t>
         </is>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>SO2992646</t>
+          <t>SO3093505</t>
         </is>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>SO2992482</t>
+          <t>SO3089781</t>
         </is>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>SO2992493</t>
+          <t>SO3091640</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>SO2992370</t>
+          <t>SO3095249</t>
         </is>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>SO2992479</t>
+          <t>SO3089867</t>
         </is>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>SO2993338</t>
+          <t>SO3089818</t>
         </is>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>SO2992487</t>
+          <t>SO3095133</t>
         </is>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>SO2992431</t>
+          <t>SO3089828</t>
         </is>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>SO2992975</t>
+          <t>SO3089826</t>
         </is>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>SO2992617</t>
+          <t>SO3091936</t>
         </is>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>SO2992485</t>
+          <t>SO3089895</t>
         </is>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>SO2992647</t>
+          <t>SO3089876</t>
         </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>SO2992483</t>
+          <t>SO3089873</t>
         </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>SO2995217</t>
+          <t>SO3089885</t>
         </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>SO2992578</t>
+          <t>SO3090027</t>
         </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>SO2992577</t>
+          <t>SO3089945</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>SO2992569</t>
+          <t>SO3091294</t>
         </is>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>SO2992480</t>
+          <t>SO3090017</t>
         </is>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>SO2992683</t>
+          <t>SO3090061</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>SO2992557</t>
+          <t>SO3090555</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>SO2992782</t>
+          <t>SO3090047</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>SO2992649</t>
+          <t>SO3090072</t>
         </is>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>SO2992905</t>
+          <t>SO3090087</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>SO2992652</t>
+          <t>SO3090074</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>SO2992906</t>
+          <t>SO3090154</t>
         </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>SO2992767</t>
+          <t>SO3092321</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>SO2992719</t>
+          <t>SO3090133</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>SO2992771</t>
+          <t>SO3090134</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>SO2998265</t>
+          <t>SO3090172</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>SO2992974</t>
+          <t>SO3090608</t>
         </is>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>SO2992836</t>
+          <t>SO3090223</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>SO2992978</t>
+          <t>SO3090224</t>
         </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>SO2992908</t>
+          <t>SO3090212</t>
         </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>SO2992980</t>
+          <t>SO3090263</t>
         </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>SO3000104</t>
+          <t>SO3090332</t>
         </is>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>SO2998852</t>
+          <t>SO3090296</t>
         </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>SO2993147</t>
+          <t>SO3096593</t>
         </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>SO2992971</t>
+          <t>SO3090610</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>SO2992912</t>
+          <t>SO3090284</t>
         </is>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>SO2992973</t>
+          <t>SO3090606</t>
         </is>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>SO2993073</t>
+          <t>SO3093196</t>
         </is>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>SO2993180</t>
+          <t>SO3090324</t>
         </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>SO2993151</t>
+          <t>SO3090377</t>
         </is>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>SO2993189</t>
+          <t>SO3091011</t>
         </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>SO3001232</t>
+          <t>SO3090371</t>
         </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>SO2994714</t>
+          <t>SO3090381</t>
         </is>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>SO2993037</t>
+          <t>SO3090403</t>
         </is>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>SO2993146</t>
+          <t>SO3090340</t>
         </is>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>SO2993148</t>
+          <t>SO3090451</t>
         </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>SO3003329</t>
+          <t>SO3095798</t>
         </is>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>SO2996778</t>
+          <t>SO3090527</t>
         </is>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>SO2993191</t>
+          <t>SO3090641</t>
         </is>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>SO2995216</t>
+          <t>SO3090609</t>
         </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>SO2995526</t>
+          <t>SO3090466</t>
         </is>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>SO2993342</t>
+          <t>SO3090456</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>SO3000487</t>
+          <t>SO3090512</t>
         </is>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>SO2993181</t>
+          <t>SO3091528</t>
         </is>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>SO2994476</t>
+          <t>SO3090605</t>
         </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>SO2997674</t>
+          <t>SO3090617</t>
         </is>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>SO2993558</t>
+          <t>SO3090619</t>
         </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>SO2993335</t>
+          <t>SO3090926</t>
         </is>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>SO2993365</t>
+          <t>SO3090662</t>
         </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>SO2993391</t>
+          <t>SO3091327</t>
         </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>SO2993366</t>
+          <t>SO3090829</t>
         </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>SO2993526</t>
+          <t>SO3090689</t>
         </is>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>SO2993418</t>
+          <t>SO3090688</t>
         </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>SO2993486</t>
+          <t>SO3126183</t>
         </is>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>SO2993454</t>
+          <t>SO3090686</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>SO2993698</t>
+          <t>SO3090702</t>
         </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>SO2993626</t>
+          <t>SO3097679</t>
         </is>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>SO2993521</t>
+          <t>SO3090753</t>
         </is>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>SO2993679</t>
+          <t>SO3090757</t>
         </is>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>SO3003892</t>
+          <t>SO3090774</t>
         </is>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>SO3003374</t>
+          <t>SO3090796</t>
         </is>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>SO2993853</t>
+          <t>SO3090797</t>
         </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>SO2993696</t>
+          <t>SO3090837</t>
         </is>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>SO2993677</t>
+          <t>SO3093123</t>
         </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>SO2995304</t>
+          <t>SO3090886</t>
         </is>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>SO2993845</t>
+          <t>SO3090849</t>
         </is>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>SO2993949</t>
+          <t>SO3090856</t>
         </is>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>SO2996243</t>
+          <t>SO3090850</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>SO2993841</t>
+          <t>SO3090986</t>
         </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>SO2994091</t>
+          <t>SO3093769</t>
         </is>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>SO2993848</t>
+          <t>SO3091009</t>
         </is>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>SO2993847</t>
+          <t>SO3091046</t>
         </is>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>SO2993842</t>
+          <t>SO3090970</t>
         </is>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>SO2994067</t>
+          <t>SO3091050</t>
         </is>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>SO2993952</t>
+          <t>SO3091006</t>
         </is>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>SO2994080</t>
+          <t>SO3091088</t>
         </is>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>SO2994147</t>
+          <t>SO3091010</t>
         </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>SO2994381</t>
+          <t>SO3091055</t>
         </is>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>SO2994260</t>
+          <t>SO3091054</t>
         </is>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>SO2994152</t>
+          <t>SO3091052</t>
         </is>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>SO2994223</t>
+          <t>SO3091007</t>
         </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>SO2994185</t>
+          <t>SO3091102</t>
         </is>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>SO2994143</t>
+          <t>SO3091087</t>
         </is>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>SO2994144</t>
+          <t>SO3091100</t>
         </is>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>SO2994182</t>
+          <t>SO3091118</t>
         </is>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>SO2994146</t>
+          <t>SO3091117</t>
         </is>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>SO2994218</t>
+          <t>SO3091583</t>
         </is>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>SO2994353</t>
+          <t>SO3091612</t>
         </is>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>SO2998885</t>
+          <t>SO3091226</t>
         </is>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>SO2994217</t>
+          <t>SO3091185</t>
         </is>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>SO2997475</t>
+          <t>SO3092224</t>
         </is>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>SO2994297</t>
+          <t>SO3091215</t>
         </is>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>SO2994360</t>
+          <t>SO3092527</t>
         </is>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>SO2994608</t>
+          <t>SO3091201</t>
         </is>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>SO2994443</t>
+          <t>SO3093612</t>
         </is>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>SO2994540</t>
+          <t>SO3094569</t>
         </is>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>SO2994537</t>
+          <t>SO3091265</t>
         </is>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>SO2994475</t>
+          <t>SO3091355</t>
         </is>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>SO2994602</t>
+          <t>SO3091326</t>
         </is>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>SO2994545</t>
+          <t>SO3091306</t>
         </is>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>SO2994920</t>
+          <t>SO3091381</t>
         </is>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>SO2994604</t>
+          <t>SO3091309</t>
         </is>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>SO2994539</t>
+          <t>SO3091310</t>
         </is>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>SO2994658</t>
+          <t>SO3092332</t>
         </is>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>SO2998777</t>
+          <t>SO3091378</t>
         </is>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>SO2994849</t>
+          <t>SO3091383</t>
         </is>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>SO2996321</t>
+          <t>SO3146034</t>
         </is>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>SO2994761</t>
+          <t>SO3091485</t>
         </is>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>SO2994765</t>
+          <t>SO3091493</t>
         </is>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>SO2994917</t>
+          <t>SO3091642</t>
         </is>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>SO2994767</t>
+          <t>SO3091502</t>
         </is>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>SO2994965</t>
+          <t>SO3091537</t>
         </is>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>SO2995637</t>
+          <t>SO3091483</t>
         </is>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>SO2994660</t>
+          <t>SO3091512</t>
         </is>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>SO2994971</t>
+          <t>SO3091527</t>
         </is>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>SO2994964</t>
+          <t>SO3107308</t>
         </is>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>SO2994998</t>
+          <t>SO3091579</t>
         </is>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>SO2999542</t>
+          <t>SO3091644</t>
         </is>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>SO2994850</t>
+          <t>SO3091593</t>
         </is>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>SO2998437</t>
+          <t>SO3091563</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>SO2998319</t>
+          <t>SO3091600</t>
         </is>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>SO2994962</t>
+          <t>SO3091810</t>
         </is>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>SO2995635</t>
+          <t>SO3091832</t>
         </is>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>SO2994967</t>
+          <t>SO3095917</t>
         </is>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>SO2995632</t>
+          <t>SO3130571</t>
         </is>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>SO2994956</t>
+          <t>SO3091886</t>
         </is>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>SO2995029</t>
+          <t>SO3091982</t>
         </is>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>SO2995125</t>
+          <t>SO3091899</t>
         </is>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>SO2995122</t>
+          <t>SO3091883</t>
         </is>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>SO2995120</t>
+          <t>SO3091910</t>
         </is>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>SO2995264</t>
+          <t>SO3096367</t>
         </is>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>SO2995024</t>
+          <t>SO3091906</t>
         </is>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>SO2995123</t>
+          <t>SO3092318</t>
         </is>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>SO3008511</t>
+          <t>SO3091941</t>
         </is>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>SO2995170</t>
+          <t>SO3091939</t>
         </is>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>SO2996121</t>
+          <t>SO3093815</t>
         </is>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>SO2995392</t>
+          <t>SO3092223</t>
         </is>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>SO2995373</t>
+          <t>SO3091934</t>
         </is>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>SO2996284</t>
+          <t>SO3091935</t>
         </is>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>SO2995173</t>
+          <t>SO3096438</t>
         </is>
       </c>
     </row>
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>SO2995171</t>
+          <t>SO3092227</t>
         </is>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>SO2995258</t>
+          <t>SO3092090</t>
         </is>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>SO2995219</t>
+          <t>SO3094892</t>
         </is>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>SO2995302</t>
+          <t>SO3092193</t>
         </is>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>SO2995449</t>
+          <t>SO3092124</t>
         </is>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>SO2995369</t>
+          <t>SO3092170</t>
         </is>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>SO2995305</t>
+          <t>SO3092129</t>
         </is>
       </c>
     </row>
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>SO2995213</t>
+          <t>SO3092145</t>
         </is>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>SO2995301</t>
+          <t>SO3092203</t>
         </is>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>SO2995266</t>
+          <t>SO3094141</t>
         </is>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>SO2995628</t>
+          <t>SO3092190</t>
         </is>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>SO2995417</t>
+          <t>SO3093704</t>
         </is>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>SO2995481</t>
+          <t>SO3092260</t>
         </is>
       </c>
     </row>
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>SO2995528</t>
+          <t>SO3092387</t>
         </is>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>SO2995710</t>
+          <t>SO3092939</t>
         </is>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>SO2996773</t>
+          <t>SO3092365</t>
         </is>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>SO2995506</t>
+          <t>SO3092374</t>
         </is>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>SO2995529</t>
+          <t>SO3092382</t>
         </is>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>SO2995622</t>
+          <t>SO3092324</t>
         </is>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>SO2995760</t>
+          <t>SO3093529</t>
         </is>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>SO2995783</t>
+          <t>SO3092355</t>
         </is>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>SO2995685</t>
+          <t>SO3092549</t>
         </is>
       </c>
     </row>
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>SO2995684</t>
+          <t>SO3095485</t>
         </is>
       </c>
     </row>
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>SO3000142</t>
+          <t>SO3092417</t>
         </is>
       </c>
     </row>
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>SO2995786</t>
+          <t>SO3092885</t>
         </is>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>SO2995874</t>
+          <t>SO3092482</t>
         </is>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>SO2995740</t>
+          <t>SO3092433</t>
         </is>
       </c>
     </row>
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>SO2995879</t>
+          <t>SO3092468</t>
         </is>
       </c>
     </row>
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>SO2995788</t>
+          <t>SO3092499</t>
         </is>
       </c>
     </row>
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>SO2995877</t>
+          <t>SO3094537</t>
         </is>
       </c>
     </row>
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>SO2995952</t>
+          <t>SO3092566</t>
         </is>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>SO2995970</t>
+          <t>SO3092581</t>
         </is>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>SO2997741</t>
+          <t>SO3092583</t>
         </is>
       </c>
     </row>
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>SO2996032</t>
+          <t>SO3092606</t>
         </is>
       </c>
     </row>
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>SO2996025</t>
+          <t>SO3092571</t>
         </is>
       </c>
     </row>
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>SO3005913</t>
+          <t>SO3092654</t>
         </is>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>SO2996081</t>
+          <t>SO3093171</t>
         </is>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>SO2996124</t>
+          <t>SO3092816</t>
         </is>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>SO2998045</t>
+          <t>SO3092841</t>
         </is>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>SO2996080</t>
+          <t>SO3092914</t>
         </is>
       </c>
     </row>
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>SO2996669</t>
+          <t>SO3092938</t>
         </is>
       </c>
     </row>
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>SO2999772</t>
+          <t>SO3092931</t>
         </is>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>SO2996224</t>
+          <t>SO3093051</t>
         </is>
       </c>
     </row>
